--- a/data/raw/Asilo2019.xlsx
+++ b/data/raw/Asilo2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Trabajos/RALI/MINISTERIO DEL INTERIOR/44683 Anuario Estadistico 2019/Tablas en Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\Master\Visualización\Refugees-A-deep-analysis-of-refugee-crisis-data\Refugees-A-deep-analysis-of-refugee-crisis-data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED72CE-0130-6648-BBB7-2F031F3CB5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0C7D5-46F9-42C3-960D-09FC84798458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="740" windowWidth="33360" windowHeight="19940" xr2:uid="{6FF5E2F8-03A2-7D48-BA04-F91FE076C3D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6FF5E2F8-03A2-7D48-BA04-F91FE076C3D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice de Tablas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="TABLA 2-8" sheetId="9" r:id="rId9"/>
     <sheet name="TABLA 2-9" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="226">
   <si>
     <r>
       <t>TABLA 2-1. </t>
@@ -497,42 +497,9 @@
     <t>Andalucía</t>
   </si>
   <si>
-    <t>Almería</t>
-  </si>
-  <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>Málaga</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Aragón</t>
   </si>
   <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Teruel</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
     <t>Asturias, Principado de</t>
   </si>
   <si>
@@ -542,114 +509,27 @@
     <t>Canarias</t>
   </si>
   <si>
-    <t>Palmas, Las</t>
-  </si>
-  <si>
-    <t>Santa Cruz de Tenerife</t>
-  </si>
-  <si>
     <t>Cantabria</t>
   </si>
   <si>
     <t>Castilla y León</t>
   </si>
   <si>
-    <t>Ávila</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>Palencia</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Segovia</t>
-  </si>
-  <si>
-    <t>Soria</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zamora</t>
-  </si>
-  <si>
     <t>Castilla-La Mancha</t>
   </si>
   <si>
-    <t>Albacete</t>
-  </si>
-  <si>
-    <t>Ciudad Real</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
-    <t>Guadalajara</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
     <t>Cataluña</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Lleida</t>
-  </si>
-  <si>
-    <t>Tarragona</t>
-  </si>
-  <si>
     <t>Comunitat Valenciana</t>
   </si>
   <si>
-    <t>Alicante/Alacant</t>
-  </si>
-  <si>
-    <t>Castellón/Castelló</t>
-  </si>
-  <si>
-    <t>Valencia/València</t>
-  </si>
-  <si>
     <t>Extremadura</t>
   </si>
   <si>
-    <t>Badajoz</t>
-  </si>
-  <si>
-    <t>Cáceres</t>
-  </si>
-  <si>
     <t>Galicia</t>
   </si>
   <si>
-    <t>Coruña, A</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Ourense</t>
-  </si>
-  <si>
-    <t>Pontevedra</t>
-  </si>
-  <si>
     <t>Madrid, Comunidad de</t>
   </si>
   <si>
@@ -660,15 +540,6 @@
   </si>
   <si>
     <t>País Vasco</t>
-  </si>
-  <si>
-    <t>Araba/Álava</t>
-  </si>
-  <si>
-    <t>Bizkaia</t>
-  </si>
-  <si>
-    <t>Gipuzkoa</t>
   </si>
   <si>
     <t>Rioja, La</t>
@@ -1610,92 +1481,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DE9B85-AEEC-F345-97D6-E17DD85C28E2}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="151.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="151.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B1" s="25"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1725,25 +1596,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="2" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1751,39 +1622,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -1791,39 +1662,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1831,23 +1702,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -1855,15 +1726,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
@@ -1871,15 +1742,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
@@ -1887,10 +1758,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
     </row>
   </sheetData>
@@ -1904,18 +1775,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +1828,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +1856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1999,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +1898,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +1912,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2055,7 +1926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +1940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2083,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2097,7 +1968,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -2111,7 +1982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2125,7 +1996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2139,7 +2010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2167,7 +2038,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -2181,7 +2052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2195,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +2080,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -2237,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -2251,7 +2122,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2265,7 +2136,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -2279,7 +2150,7 @@
         <v>29410</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2293,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2307,7 +2178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2192,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -2335,7 +2206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2220,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -2363,7 +2234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -2377,7 +2248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -2391,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -2405,7 +2276,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2290,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -2433,7 +2304,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -2447,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -2461,7 +2332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2475,7 +2346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -2489,7 +2360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
@@ -2503,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2517,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -2531,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2545,7 +2416,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -2559,7 +2430,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -2573,7 +2444,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2587,7 +2458,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -2601,7 +2472,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
@@ -2615,7 +2486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -2643,7 +2514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -2657,7 +2528,7 @@
         <v>6803</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -2671,7 +2542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2685,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -2699,7 +2570,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -2713,7 +2584,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -2727,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2741,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2755,7 +2626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -2769,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -2783,7 +2654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -2797,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -2811,7 +2682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2825,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -2839,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -2853,7 +2724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -2867,7 +2738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -2881,7 +2752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -2895,7 +2766,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -2909,7 +2780,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -2923,7 +2794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -2937,7 +2808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -2951,7 +2822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -2965,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -2979,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -3007,7 +2878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>82</v>
       </c>
@@ -3021,7 +2892,7 @@
         <v>5935</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
@@ -3035,7 +2906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>84</v>
       </c>
@@ -3049,7 +2920,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>85</v>
       </c>
@@ -3063,7 +2934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>86</v>
       </c>
@@ -3077,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
@@ -3091,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>88</v>
       </c>
@@ -3105,7 +2976,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>89</v>
       </c>
@@ -3119,7 +2990,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>90</v>
       </c>
@@ -3133,7 +3004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>91</v>
       </c>
@@ -3147,7 +3018,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
@@ -3161,7 +3032,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
@@ -3175,7 +3046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>94</v>
       </c>
@@ -3189,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
@@ -3203,7 +3074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -3217,7 +3088,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>97</v>
       </c>
@@ -3231,7 +3102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
@@ -3245,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
@@ -3259,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>100</v>
       </c>
@@ -3273,7 +3144,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>101</v>
       </c>
@@ -3287,7 +3158,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>102</v>
       </c>
@@ -3301,7 +3172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>103</v>
       </c>
@@ -3315,7 +3186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>104</v>
       </c>
@@ -3329,7 +3200,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>105</v>
       </c>
@@ -3343,7 +3214,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>106</v>
       </c>
@@ -3357,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -3371,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
@@ -3385,7 +3256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>109</v>
       </c>
@@ -3399,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>110</v>
       </c>
@@ -3413,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>111</v>
       </c>
@@ -3427,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>112</v>
       </c>
@@ -3441,7 +3312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>113</v>
       </c>
@@ -3455,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>114</v>
       </c>
@@ -3469,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>115</v>
       </c>
@@ -3483,7 +3354,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>116</v>
       </c>
@@ -3497,7 +3368,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>117</v>
       </c>
@@ -3511,7 +3382,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>118</v>
       </c>
@@ -3525,7 +3396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>119</v>
       </c>
@@ -3539,7 +3410,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>120</v>
       </c>
@@ -3553,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
@@ -3567,7 +3438,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>122</v>
       </c>
@@ -3581,7 +3452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>123</v>
       </c>
@@ -3595,7 +3466,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>124</v>
       </c>
@@ -3609,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>125</v>
       </c>
@@ -3623,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>4</v>
       </c>
@@ -3637,10 +3508,10 @@
         <v>118446</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
     </row>
   </sheetData>
@@ -3654,17 +3525,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -3688,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="13" t="s">
         <v>131</v>
@@ -3716,7 +3587,7 @@
       </c>
       <c r="J3" s="29"/>
     </row>
-    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3748,7 +3619,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3780,7 +3651,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3812,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3844,7 +3715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3876,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3908,7 +3779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -3940,7 +3811,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -3972,7 +3843,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -4004,7 +3875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -4036,7 +3907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -4068,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -4100,7 +3971,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -4132,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -4164,7 +4035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -4196,7 +4067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -4228,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4131,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -4292,7 +4163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -4324,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -4356,7 +4227,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +4259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -4420,7 +4291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -4452,7 +4323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -4484,7 +4355,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -4516,7 +4387,7 @@
         <v>29410</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -4548,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -4580,7 +4451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -4612,7 +4483,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -4644,7 +4515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -4676,7 +4547,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -4708,7 +4579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -4740,7 +4611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -4772,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -4804,7 +4675,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -4836,7 +4707,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -4868,7 +4739,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -4900,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -4932,7 +4803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -4964,7 +4835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -4996,7 +4867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -5028,7 +4899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -5060,7 +4931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -5092,7 +4963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -5124,7 +4995,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -5156,7 +5027,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -5188,7 +5059,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -5220,7 +5091,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -5252,7 +5123,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -5284,7 +5155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -5316,7 +5187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -5348,7 +5219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -5380,7 +5251,7 @@
         <v>6803</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -5412,7 +5283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -5444,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -5476,7 +5347,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -5508,7 +5379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -5540,7 +5411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -5572,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -5604,7 +5475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -5636,7 +5507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -5668,7 +5539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -5700,7 +5571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -5732,7 +5603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -5764,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -5796,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -5828,7 +5699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -5860,7 +5731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -5892,7 +5763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -5924,7 +5795,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -5956,7 +5827,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
@@ -5988,7 +5859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
@@ -6020,7 +5891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
@@ -6052,7 +5923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
@@ -6084,7 +5955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -6116,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -6148,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -6180,7 +6051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -6212,7 +6083,7 @@
         <v>5935</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -6244,7 +6115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -6276,7 +6147,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -6308,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -6340,7 +6211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -6372,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -6404,7 +6275,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -6436,7 +6307,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -6468,7 +6339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -6500,7 +6371,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -6532,7 +6403,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
@@ -6564,7 +6435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -6596,7 +6467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -6628,7 +6499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>96</v>
       </c>
@@ -6660,7 +6531,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
@@ -6692,7 +6563,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
@@ -6724,7 +6595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -6756,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
@@ -6788,7 +6659,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -6820,7 +6691,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
@@ -6852,7 +6723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
@@ -6884,7 +6755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
@@ -6916,7 +6787,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -6948,7 +6819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -6980,7 +6851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -7012,7 +6883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -7044,7 +6915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -7076,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -7108,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -7140,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -7172,7 +7043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -7204,7 +7075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -7236,7 +7107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
@@ -7268,7 +7139,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
@@ -7300,7 +7171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
@@ -7332,7 +7203,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
@@ -7364,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
@@ -7396,7 +7267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
@@ -7428,7 +7299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
@@ -7460,7 +7331,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
@@ -7492,7 +7363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
@@ -7524,7 +7395,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
@@ -7556,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
@@ -7588,7 +7459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>4</v>
       </c>
@@ -7620,17 +7491,17 @@
         <v>118446</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="27" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" s="27" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
     </row>
   </sheetData>
@@ -7652,23 +7523,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACDCBB0-13AA-414A-B16A-EB95E5D90C7A}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
@@ -7685,7 +7556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>138</v>
       </c>
@@ -7700,129 +7571,65 @@
         <v>10426</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="4">
-        <v>651</v>
-      </c>
-      <c r="D4" s="4">
-        <v>428</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="4">
-        <v>822</v>
-      </c>
-      <c r="D5" s="4">
-        <v>309</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4">
-        <v>335</v>
-      </c>
-      <c r="D6" s="4">
-        <v>312</v>
-      </c>
-      <c r="E6" s="5">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="4">
-        <v>340</v>
-      </c>
-      <c r="D7" s="4">
-        <v>322</v>
-      </c>
-      <c r="E7" s="5">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="4">
-        <v>312</v>
-      </c>
-      <c r="D8" s="4">
-        <v>235</v>
-      </c>
-      <c r="E8" s="5">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="4">
-        <v>103</v>
-      </c>
-      <c r="D9" s="4">
-        <v>129</v>
-      </c>
-      <c r="E9" s="5">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1954</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1899</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1238</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1037</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="16">
@@ -7835,54 +7642,30 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="4">
-        <v>379</v>
-      </c>
-      <c r="D13" s="4">
-        <v>262</v>
-      </c>
-      <c r="E13" s="5">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="4">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4">
-        <v>61</v>
-      </c>
-      <c r="E14" s="5">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="4">
-        <v>970</v>
-      </c>
-      <c r="D15" s="4">
-        <v>925</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="19">
@@ -7895,9 +7678,9 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="19">
@@ -7910,9 +7693,9 @@
         <v>884</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="16">
@@ -7925,39 +7708,23 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="4">
-        <v>655</v>
-      </c>
-      <c r="D19" s="4">
-        <v>694</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1072</v>
-      </c>
-      <c r="D20" s="4">
-        <v>683</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="19">
@@ -7970,9 +7737,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="16">
@@ -7985,144 +7752,72 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="4">
-        <v>168</v>
-      </c>
-      <c r="D23" s="4">
-        <v>206</v>
-      </c>
-      <c r="E23" s="5">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="4">
-        <v>200</v>
-      </c>
-      <c r="D24" s="4">
-        <v>174</v>
-      </c>
-      <c r="E24" s="5">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="4">
-        <v>135</v>
-      </c>
-      <c r="D25" s="4">
-        <v>149</v>
-      </c>
-      <c r="E25" s="5">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="4">
-        <v>49</v>
-      </c>
-      <c r="D26" s="4">
-        <v>35</v>
-      </c>
-      <c r="E26" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="4">
-        <v>171</v>
-      </c>
-      <c r="D27" s="4">
-        <v>174</v>
-      </c>
-      <c r="E27" s="5">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="4">
-        <v>162</v>
-      </c>
-      <c r="D28" s="4">
-        <v>186</v>
-      </c>
-      <c r="E28" s="5">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="4">
-        <v>88</v>
-      </c>
-      <c r="D29" s="4">
-        <v>100</v>
-      </c>
-      <c r="E29" s="5">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="4">
-        <v>314</v>
-      </c>
-      <c r="D30" s="4">
-        <v>331</v>
-      </c>
-      <c r="E30" s="5">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="4">
-        <v>44</v>
-      </c>
-      <c r="D31" s="4">
-        <v>61</v>
-      </c>
-      <c r="E31" s="5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="19">
@@ -8135,84 +7830,44 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="4">
-        <v>269</v>
-      </c>
-      <c r="D33" s="4">
-        <v>162</v>
-      </c>
-      <c r="E33" s="5">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="4">
-        <v>117</v>
-      </c>
-      <c r="D34" s="4">
-        <v>129</v>
-      </c>
-      <c r="E34" s="5">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="4">
-        <v>62</v>
-      </c>
-      <c r="D35" s="4">
-        <v>55</v>
-      </c>
-      <c r="E35" s="5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="4">
-        <v>188</v>
-      </c>
-      <c r="D36" s="4">
-        <v>185</v>
-      </c>
-      <c r="E36" s="5">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="4">
-        <v>226</v>
-      </c>
-      <c r="D37" s="4">
-        <v>221</v>
-      </c>
-      <c r="E37" s="5">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="16">
@@ -8225,69 +7880,37 @@
         <v>13278</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="6">
-        <v>6533</v>
-      </c>
-      <c r="D39" s="6">
-        <v>5185</v>
-      </c>
-      <c r="E39" s="7">
-        <v>11718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="4">
-        <v>389</v>
-      </c>
-      <c r="D40" s="4">
-        <v>367</v>
-      </c>
-      <c r="E40" s="5">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="4">
-        <v>328</v>
-      </c>
-      <c r="D41" s="4">
-        <v>225</v>
-      </c>
-      <c r="E41" s="5">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="4">
-        <v>119</v>
-      </c>
-      <c r="D42" s="4">
-        <v>132</v>
-      </c>
-      <c r="E42" s="5">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="16">
@@ -8300,54 +7923,30 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="4">
-        <v>588</v>
-      </c>
-      <c r="D44" s="4">
-        <v>552</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="4">
-        <v>405</v>
-      </c>
-      <c r="D45" s="4">
-        <v>408</v>
-      </c>
-      <c r="E45" s="5">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="6">
-        <v>3028</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2528</v>
-      </c>
-      <c r="E46" s="7">
-        <v>5556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="19">
@@ -8360,39 +7959,23 @@
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
-      <c r="B48" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="4">
-        <v>112</v>
-      </c>
-      <c r="D48" s="4">
-        <v>133</v>
-      </c>
-      <c r="E48" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="4">
-        <v>107</v>
-      </c>
-      <c r="D49" s="4">
-        <v>117</v>
-      </c>
-      <c r="E49" s="5">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="16">
@@ -8405,69 +7988,37 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="4">
-        <v>806</v>
-      </c>
-      <c r="D51" s="4">
-        <v>900</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
-      <c r="B52" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="4">
-        <v>106</v>
-      </c>
-      <c r="D52" s="4">
-        <v>153</v>
-      </c>
-      <c r="E52" s="5">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="4">
-        <v>167</v>
-      </c>
-      <c r="D53" s="4">
-        <v>204</v>
-      </c>
-      <c r="E53" s="5">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
-      <c r="B54" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" s="4">
-        <v>601</v>
-      </c>
-      <c r="D54" s="4">
-        <v>735</v>
-      </c>
-      <c r="E54" s="7">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="16">
@@ -8480,9 +8031,9 @@
         <v>55135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="16">
@@ -8495,9 +8046,9 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="19">
@@ -8510,9 +8061,9 @@
         <v>709</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="16">
@@ -8525,54 +8076,30 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
-      <c r="B59" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="4">
-        <v>435</v>
-      </c>
-      <c r="D59" s="4">
-        <v>457</v>
-      </c>
-      <c r="E59" s="5">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="18"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
-      <c r="B60" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="6">
-        <v>1887</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1508</v>
-      </c>
-      <c r="E60" s="7">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
-      <c r="B61" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="4">
-        <v>300</v>
-      </c>
-      <c r="D61" s="4">
-        <v>240</v>
-      </c>
-      <c r="E61" s="5">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="19">
@@ -8585,9 +8112,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="19">
@@ -8600,9 +8127,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="16">
@@ -8615,7 +8142,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>4</v>
       </c>
@@ -8630,20 +8157,29 @@
         <v>116749</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
@@ -8656,15 +8192,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8678,18 +8205,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8703,7 +8230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -8717,7 +8244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -8731,7 +8258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -8745,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -8759,7 +8286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8773,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -8787,9 +8314,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B9" s="4">
         <v>20</v>
@@ -8801,9 +8328,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -8815,9 +8342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -8829,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -8843,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -8857,7 +8384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -8871,7 +8398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -8885,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -8899,7 +8426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -8913,7 +8440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -8927,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -8941,9 +8468,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -8955,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
@@ -8969,7 +8496,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>88</v>
       </c>
@@ -8983,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>89</v>
       </c>
@@ -8997,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -9011,9 +8538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -9025,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -9039,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>117</v>
       </c>
@@ -9053,7 +8580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
@@ -9067,10 +8594,10 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
     </row>
   </sheetData>
@@ -9086,34 +8613,34 @@
       <selection activeCell="K106" sqref="K23:K106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="30" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="30" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="13" t="s">
         <v>131</v>
@@ -9134,7 +8661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -9157,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -9180,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -9203,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -9226,7 +8753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -9249,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -9272,7 +8799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -9295,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -9318,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -9341,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -9364,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -9387,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -9410,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -9433,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -9456,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -9479,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -9502,7 +9029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -9525,9 +9052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -9548,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -9571,7 +9098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -9594,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -9617,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -9640,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -9663,7 +9190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -9686,7 +9213,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -9709,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -9732,7 +9259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -9778,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -9801,7 +9328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -9824,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -9847,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -9870,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -9893,7 +9420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -9916,7 +9443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -9939,7 +9466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -9962,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -9985,9 +9512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -10008,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -10031,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -10054,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -10077,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -10100,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -10123,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -10146,7 +9673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -10169,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -10192,7 +9719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -10215,7 +9742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
@@ -10238,7 +9765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -10261,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -10284,7 +9811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -10307,9 +9834,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -10330,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -10353,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -10376,7 +9903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -10399,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -10422,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -10445,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
@@ -10468,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -10491,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -10514,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -10537,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -10560,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
@@ -10583,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
@@ -10606,7 +10133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
@@ -10629,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -10652,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
@@ -10675,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -10698,7 +10225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
@@ -10721,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
@@ -10744,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
@@ -10767,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
@@ -10790,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
@@ -10813,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
@@ -10836,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
@@ -10859,7 +10386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
@@ -10882,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
@@ -10905,7 +10432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>85</v>
       </c>
@@ -10928,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
@@ -10951,9 +10478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -10974,9 +10501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -10997,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
@@ -11020,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
@@ -11043,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
@@ -11066,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -11089,7 +10616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
@@ -11112,7 +10639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
@@ -11135,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>94</v>
       </c>
@@ -11158,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -11181,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -11204,7 +10731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
@@ -11227,7 +10754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -11250,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>100</v>
       </c>
@@ -11273,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>101</v>
       </c>
@@ -11296,7 +10823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>102</v>
       </c>
@@ -11319,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>103</v>
       </c>
@@ -11342,9 +10869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B100" s="4">
         <v>1</v>
@@ -11365,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
@@ -11388,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -11411,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
@@ -11434,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -11457,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
@@ -11480,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
@@ -11503,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
@@ -11526,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>112</v>
       </c>
@@ -11549,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>113</v>
       </c>
@@ -11572,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>114</v>
       </c>
@@ -11595,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>115</v>
       </c>
@@ -11618,7 +11145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>116</v>
       </c>
@@ -11641,7 +11168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
@@ -11664,7 +11191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
@@ -11687,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>119</v>
       </c>
@@ -11710,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>120</v>
       </c>
@@ -11733,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>121</v>
       </c>
@@ -11756,7 +11283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>122</v>
       </c>
@@ -11779,7 +11306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>123</v>
       </c>
@@ -11802,7 +11329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>124</v>
       </c>
@@ -11825,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>4</v>
       </c>
@@ -11848,10 +11375,10 @@
         <v>660</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
     </row>
   </sheetData>
@@ -11873,38 +11400,38 @@
       <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="30" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="30" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="30" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="13" t="s">
         <v>131</v>
@@ -11931,7 +11458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -11960,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -11989,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -12018,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -12047,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -12076,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -12105,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -12134,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -12163,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -12192,7 +11719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -12221,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -12250,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -12279,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -12308,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -12337,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -12366,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -12395,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -12424,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -12453,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -12482,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -12511,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -12540,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -12569,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -12598,7 +12125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -12627,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -12656,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -12685,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -12714,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -12743,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -12772,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -12801,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -12830,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -12859,7 +12386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -12888,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -12917,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -12946,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -12975,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -13004,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -13033,7 +12560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -13062,9 +12589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -13091,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
@@ -13120,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -13149,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -13178,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -13207,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -13236,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -13265,7 +12792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -13294,7 +12821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -13323,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
@@ -13352,7 +12879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>60</v>
       </c>
@@ -13381,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>61</v>
       </c>
@@ -13410,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -13439,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
@@ -13468,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
@@ -13497,7 +13024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -13526,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>70</v>
       </c>
@@ -13555,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>71</v>
       </c>
@@ -13584,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
@@ -13613,9 +13140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -13642,9 +13169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -13671,9 +13198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -13700,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>73</v>
       </c>
@@ -13729,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>74</v>
       </c>
@@ -13758,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
@@ -13787,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>76</v>
       </c>
@@ -13816,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>77</v>
       </c>
@@ -13845,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>78</v>
       </c>
@@ -13874,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -13903,9 +13430,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
@@ -13932,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>81</v>
       </c>
@@ -13961,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>82</v>
       </c>
@@ -13990,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>83</v>
       </c>
@@ -14019,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>84</v>
       </c>
@@ -14048,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>85</v>
       </c>
@@ -14077,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>86</v>
       </c>
@@ -14106,9 +13633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -14135,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>88</v>
       </c>
@@ -14164,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>89</v>
       </c>
@@ -14193,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>90</v>
       </c>
@@ -14222,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>91</v>
       </c>
@@ -14251,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
@@ -14280,7 +13807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>95</v>
       </c>
@@ -14309,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
@@ -14338,7 +13865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>97</v>
       </c>
@@ -14367,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>98</v>
       </c>
@@ -14396,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>100</v>
       </c>
@@ -14425,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>101</v>
       </c>
@@ -14454,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>102</v>
       </c>
@@ -14483,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>103</v>
       </c>
@@ -14512,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>104</v>
       </c>
@@ -14541,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>105</v>
       </c>
@@ -14570,7 +14097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>106</v>
       </c>
@@ -14599,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>107</v>
       </c>
@@ -14628,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>108</v>
       </c>
@@ -14657,9 +14184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="B98" s="4">
         <v>3</v>
@@ -14686,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>110</v>
       </c>
@@ -14715,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>111</v>
       </c>
@@ -14744,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>113</v>
       </c>
@@ -14773,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>114</v>
       </c>
@@ -14802,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>115</v>
       </c>
@@ -14831,9 +14358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="B104" s="4">
         <v>0</v>
@@ -14860,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>116</v>
       </c>
@@ -14889,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>117</v>
       </c>
@@ -14918,7 +14445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>118</v>
       </c>
@@ -14947,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>119</v>
       </c>
@@ -14976,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>120</v>
       </c>
@@ -15005,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>121</v>
       </c>
@@ -15034,7 +14561,7 @@
         <v>18054</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>122</v>
       </c>
@@ -15063,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>123</v>
       </c>
@@ -15092,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>124</v>
       </c>
@@ -15121,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>4</v>
       </c>
@@ -15150,10 +14677,10 @@
         <v>18106</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
     </row>
   </sheetData>
@@ -15176,30 +14703,30 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="30" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="13" t="s">
         <v>131</v>
@@ -15214,7 +14741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -15231,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -15248,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -15265,9 +14792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -15282,7 +14809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -15299,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -15316,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -15333,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -15350,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -15367,7 +14894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
@@ -15384,7 +14911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
@@ -15401,7 +14928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>91</v>
       </c>
@@ -15418,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -15435,7 +14962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -15452,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>102</v>
       </c>
@@ -15469,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
@@ -15486,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>117</v>
       </c>
@@ -15503,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>4</v>
       </c>
@@ -15520,10 +15047,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
     </row>
   </sheetData>
@@ -15544,25 +15071,25 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="2" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -15570,79 +15097,79 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B5" s="6">
         <v>1917</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B12" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -15650,39 +15177,39 @@
         <v>8868</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="B14" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="B15" s="4">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B16" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B17" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
@@ -15690,47 +15217,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="B20" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="B21" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B22" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>93</v>
       </c>
@@ -15738,7 +15265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -15746,15 +15273,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="B26" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>99</v>
       </c>
@@ -15762,7 +15289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
@@ -15770,15 +15297,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4">
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
@@ -15786,10 +15313,10 @@
         <v>15619</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
     </row>
   </sheetData>
